--- a/firstScan.xlsx
+++ b/firstScan.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,12 +420,12 @@
     <row r="2" spans="1:8" customFormat="false">
       <c r="A2" t="inlineStr">
         <is>
-          <t>74311420</t>
+          <t>75734984</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>80725555</t>
+          <t>80847988</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -435,7 +435,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2019-05-20</t>
+          <t>2019-05-25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -450,24 +450,24 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ios</t>
+          <t>android</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>74311420</t>
+          <t>75734984</t>
         </is>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="false">
       <c r="A3" t="inlineStr">
         <is>
-          <t>74311420</t>
+          <t>75655632</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>80763028</t>
+          <t>80785194</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -497,19 +497,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>74311420</t>
+          <t>75655632</t>
         </is>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="false">
       <c r="A4" t="inlineStr">
         <is>
-          <t>74311420</t>
+          <t>75725441</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>80448154</t>
+          <t>80844041</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2019-05-10</t>
+          <t>2019-05-25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -529,29 +529,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>bandweb</t>
+          <t>bandapp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>ios</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>74311420</t>
+          <t>75725441</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="false">
       <c r="A5" t="inlineStr">
         <is>
-          <t>74311420</t>
+          <t>75655632</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>80447799</t>
+          <t>80655057</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2019-05-10</t>
+          <t>2019-05-18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,17 +571,2201 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>bandweb</t>
+          <t>bandapp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>macos</t>
+          <t>ios</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>74311420</t>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="false">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>80865429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="false">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>80842678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customFormat="false">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>80891179</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2019-05-27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:8" customFormat="false">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>80847907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:8" customFormat="false">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>80849907</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:8" customFormat="false">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>80654836</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2019-05-18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:8" customFormat="false">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>80842024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:8" customFormat="false">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>80847753</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customFormat="false">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>80655313</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2019-05-18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:8" customFormat="false">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>80847761</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customFormat="false">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>80890763</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2019-05-27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:8" customFormat="false">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>80841618</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customFormat="false">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>80841885</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:8" customFormat="false">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>80655022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2019-05-18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:8" customFormat="false">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>80656674</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2019-05-18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:8" customFormat="false">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>80847791</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:8" customFormat="false">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>80849976</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:8" customFormat="false">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>80848193</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:8" customFormat="false">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>80852262</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:8" customFormat="false">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>80655018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2019-05-18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:8" customFormat="false">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>80841861</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:8" customFormat="false">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>80849906</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:8" customFormat="false">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>80869393</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2019-05-26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:8" customFormat="false">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>80847763</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:8" customFormat="false">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>80842538</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:8" customFormat="false">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>80841820</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="false">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>80818226</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="false">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>80871747</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2019-05-26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="false">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>80877748</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2019-05-26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="false">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>80655566</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2019-05-18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="false">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>80890500</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2019-05-27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="false">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>80655123</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2019-05-18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" spans="1:8" customFormat="false">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>80867103</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2019-05-26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" spans="1:8" customFormat="false">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>80873387</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2019-05-26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" spans="1:8" customFormat="false">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>80848044</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" spans="1:8" customFormat="false">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>80841465</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" spans="1:8" customFormat="false">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>80844757</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" spans="1:8" customFormat="false">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>80703614</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2019-05-20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" spans="1:8" customFormat="false">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>80841888</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" spans="1:8" customFormat="false">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>80848125</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" spans="1:8" customFormat="false">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>80656230</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2019-05-18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" spans="1:8" customFormat="false">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>80841459</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" spans="1:8" customFormat="false">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>80847793</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" spans="1:8" customFormat="false">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>80655518</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2019-05-18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" spans="1:8" customFormat="false">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>80655209</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2019-05-18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" spans="1:8" customFormat="false">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>80845370</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" spans="1:8" customFormat="false">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>80841691</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>75725441</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" spans="1:8" customFormat="false">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>80848426</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" spans="1:8" customFormat="false">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>80848162</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" spans="1:8" customFormat="false">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>80862557</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" spans="1:8" customFormat="false">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>80818678</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>75655632</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" spans="1:8" customFormat="false">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>75734984</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>80847916</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2019-05-25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>bandapp</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>75734984</t>
         </is>
       </c>
     </row>
